--- a/clima.xlsx
+++ b/clima.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaeta\Desktop\uni\websemantico\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\git\ProgettoWS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544A218E-1E1C-495E-ABBA-FE31ED3EFAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0C2226-5BF0-4429-BB48-1E2DEB9457B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1950" yWindow="3075" windowWidth="22095" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,13 +74,141 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -95,9 +223,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -381,10 +530,15 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -408,48 +562,58 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>300</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>600</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="12">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="12">
         <v>10</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>400</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>900</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="13">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="13">
         <v>30</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>600</v>
       </c>
-      <c r="D4">
+      <c r="C4" s="4"/>
+      <c r="D4" s="14">
         <v>13</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="14">
         <v>25</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -470,34 +634,40 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>50</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>100</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="15">
         <v>10</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="15">
         <v>32</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="6">
         <v>100</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>200</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>16</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>24</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -510,11 +680,14 @@
       <c r="C8">
         <v>600</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="16">
         <v>5</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="16">
         <v>24</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -527,21 +700,24 @@
       <c r="C9">
         <v>100</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="17">
         <v>10</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="17">
         <v>25</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="7">
         <v>400</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="7">
         <v>600</v>
       </c>
       <c r="D10">
@@ -549,23 +725,29 @@
       </c>
       <c r="E10">
         <v>30</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="8">
         <v>50</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="8">
         <v>500</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="18">
         <v>18</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="18">
         <v>30</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -578,11 +760,14 @@
       <c r="C12">
         <v>600</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="19">
         <v>16</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="19">
         <v>18</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -595,62 +780,74 @@
       <c r="C13">
         <v>900</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="20">
         <v>20</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="20">
         <v>25</v>
+      </c>
+      <c r="F13">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="9">
         <v>200</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="9">
         <v>500</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="9">
         <v>10</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="9">
         <v>20</v>
+      </c>
+      <c r="F14" s="21">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="10">
         <v>400</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="10">
         <v>500</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>14</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>23</v>
+      </c>
+      <c r="F15" s="22">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="11">
         <v>400</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="11">
         <v>800</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="17">
         <v>15</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="17">
         <v>24</v>
+      </c>
+      <c r="F16">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
